--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aws_project\workspace\androg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AA339-0821-444D-B976-2B235B3D59E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45517D-AEDA-4C5D-A3A9-7E1C79EF8095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -731,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -772,7 +772,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -793,7 +793,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
@@ -840,7 +840,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
         <v>61</v>
